--- a/assets/excel/data_monitor.xlsx
+++ b/assets/excel/data_monitor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>Devices</t>
   </si>
@@ -56,61 +56,268 @@
     <t>LCD Monitor</t>
   </si>
   <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>LCD Monitor 19.5 Inch [W1907]</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month</t>
+  </si>
+  <si>
+    <t>KSM-001</t>
+  </si>
+  <si>
+    <t>Anan Fauzi</t>
+  </si>
+  <si>
+    <t>Kemana Jakarta</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>LED Monitor</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>LED Ultra-Slim Monitor 23 Inch [S2330MX]</t>
+  </si>
+  <si>
+    <t>KSM-002</t>
+  </si>
+  <si>
+    <t>Didi Kusnadi</t>
+  </si>
+  <si>
+    <t>KSM-003</t>
+  </si>
+  <si>
+    <t>Pendi</t>
+  </si>
+  <si>
+    <t>KSM-004</t>
+  </si>
+  <si>
+    <t>Cipto Raharjo</t>
+  </si>
+  <si>
+    <t>KSM-005</t>
+  </si>
+  <si>
+    <t>Irman Pambudi</t>
+  </si>
+  <si>
+    <t>KSM-006</t>
+  </si>
+  <si>
+    <t>Budi Hriyana</t>
+  </si>
+  <si>
+    <t>KSM-007</t>
+  </si>
+  <si>
+    <t>Saiful Fahamsyah</t>
+  </si>
+  <si>
+    <t>Monitor LED 21.5 Inch [E2215HV]</t>
+  </si>
+  <si>
+    <t>KSM-009</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>LED Monitor 19.5 Inch [20M38A]</t>
+  </si>
+  <si>
+    <t>KSM-010</t>
+  </si>
+  <si>
+    <t>Sapta Sanjaya</t>
+  </si>
+  <si>
+    <t>KSM-011</t>
+  </si>
+  <si>
+    <t>LED Monitor 19.5 Inch [E2016HV]</t>
+  </si>
+  <si>
+    <t>KSM-012</t>
+  </si>
+  <si>
+    <t>Kurniawan</t>
+  </si>
+  <si>
+    <t>KSM-013</t>
+  </si>
+  <si>
+    <t>Kevin Gosal</t>
+  </si>
+  <si>
+    <t>KSM-014</t>
+  </si>
+  <si>
+    <t>Ashadi Muliawan</t>
+  </si>
+  <si>
+    <t>KSM-015</t>
+  </si>
+  <si>
+    <t>Henry Wongkar</t>
+  </si>
+  <si>
+    <t>KSM-016</t>
+  </si>
+  <si>
+    <t>Imam Kusuma</t>
+  </si>
+  <si>
+    <t>KSM-017</t>
+  </si>
+  <si>
+    <t>Hernady Latip</t>
+  </si>
+  <si>
+    <t>IPS LED Monitor 23 Inch [P2317H]</t>
+  </si>
+  <si>
+    <t>KSM-018</t>
+  </si>
+  <si>
+    <t>Mahardhika Putra Sulistyo</t>
+  </si>
+  <si>
+    <t>KSM-019</t>
+  </si>
+  <si>
+    <t>KSM-020</t>
+  </si>
+  <si>
+    <t>Shinta Octavia</t>
+  </si>
+  <si>
+    <t>LED Monitor 22 Inch [E2216HV]</t>
+  </si>
+  <si>
+    <t>KSM-021</t>
+  </si>
+  <si>
+    <t>Ryan Permana</t>
+  </si>
+  <si>
+    <t>KSM-022</t>
+  </si>
+  <si>
+    <t>Edi Suryadi</t>
+  </si>
+  <si>
+    <t>KSM-023</t>
+  </si>
+  <si>
+    <t>Muttaqiin</t>
+  </si>
+  <si>
+    <t>KSM-024</t>
+  </si>
+  <si>
+    <t>Herwandi</t>
+  </si>
+  <si>
+    <t>Monitor Gaming 23.6 inch [SE2417HG]</t>
+  </si>
+  <si>
+    <t>KSM-025</t>
+  </si>
+  <si>
+    <t>Simon Petrus</t>
+  </si>
+  <si>
     <t>Acer</t>
   </si>
   <si>
-    <t>Cerrrrr</t>
-  </si>
-  <si>
-    <t>Hello22</t>
-  </si>
-  <si>
-    <t>2017-09-28</t>
-  </si>
-  <si>
-    <t>36 Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdafasdf        </t>
-  </si>
-  <si>
-    <t>Acerrr10</t>
-  </si>
-  <si>
-    <t>Ujang</t>
-  </si>
-  <si>
-    <t>Jakarta Office</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Acer2345</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>2017-09-20</t>
-  </si>
-  <si>
-    <t>48 Month</t>
-  </si>
-  <si>
-    <t>adsfasf</t>
-  </si>
-  <si>
-    <t>gggdsaf</t>
-  </si>
-  <si>
-    <t>Firman Alhadiansyah</t>
-  </si>
-  <si>
-    <t>Bandung Office</t>
-  </si>
-  <si>
-    <t>Good</t>
+    <t>LED Monitor 19.5 Inch [K202HQL]</t>
+  </si>
+  <si>
+    <t>KSM-026</t>
+  </si>
+  <si>
+    <t>Ansyori B</t>
+  </si>
+  <si>
+    <t>Kemana Bandung</t>
+  </si>
+  <si>
+    <t>KSM-027</t>
+  </si>
+  <si>
+    <t>Bobby Brillian Yerikho</t>
+  </si>
+  <si>
+    <t>KSM-028</t>
+  </si>
+  <si>
+    <t>Sidik Purnomo</t>
+  </si>
+  <si>
+    <t>KSM-029</t>
+  </si>
+  <si>
+    <t>Taupik Otto Ismail</t>
+  </si>
+  <si>
+    <t>KSM-030</t>
+  </si>
+  <si>
+    <t>KSM-031</t>
+  </si>
+  <si>
+    <t>Hafizh Fathir Firdaus</t>
+  </si>
+  <si>
+    <t>KSM-032</t>
+  </si>
+  <si>
+    <t>Taufik Maulana Nugraha</t>
+  </si>
+  <si>
+    <t>KSM-033</t>
+  </si>
+  <si>
+    <t>KSM-034</t>
+  </si>
+  <si>
+    <t>Ratna Puri Effendi</t>
+  </si>
+  <si>
+    <t>KSM-035</t>
+  </si>
+  <si>
+    <t>Rizal Fauzie Ridwan</t>
+  </si>
+  <si>
+    <t>KSM-036</t>
+  </si>
+  <si>
+    <t>KSM-037</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>iMac 23 Inch</t>
+  </si>
+  <si>
+    <t>KSM-038</t>
+  </si>
+  <si>
+    <t>Christopher Benz</t>
   </si>
 </sst>
 </file>
@@ -449,7 +656,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,70 +712,1154 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>450000</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J6" t="s">
         <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
